--- a/Ressourcen/To-do Liste.xlsx
+++ b/Ressourcen/To-do Liste.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\Projektdokumentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\Ressourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3388C8-6DA7-42D2-86EF-73729F7A3E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F44F5D-E08C-481C-BE82-8541B1C8E995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" activeCellId="1" sqref="D7 E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -648,7 +648,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -657,7 +657,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -672,7 +672,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11)/900*100</f>
-        <v>79.333333333333329</v>
+        <v>82.111111111111114</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -755,27 +755,27 @@
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="3"/>
+      <c r="B23" s="2"/>
       <c r="C23" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="3"/>
+      <c r="B25" s="2"/>
       <c r="C25" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -790,7 +790,7 @@
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <f>(C21+C22+C23+C24+C25+C26)/600*100</f>
-        <v>67.5</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -851,9 +851,9 @@
       <c r="A35" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="2"/>
       <c r="C35" s="6">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -871,13 +871,13 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>(C34+C35+C36+C37)/400*100</f>
-        <v>51.249999999999993</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">

--- a/Ressourcen/To-do Liste.xlsx
+++ b/Ressourcen/To-do Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\Ressourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F44F5D-E08C-481C-BE82-8541B1C8E995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D18C9-65E3-4250-ABE4-0B6C9DAA6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" activeCellId="1" sqref="D7 E31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,15 +782,15 @@
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="2"/>
       <c r="C26" s="6">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C27" s="6">
         <f>(C21+C22+C23+C24+C25+C26)/600*100</f>
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -814,7 +814,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -829,7 +829,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C32" s="6">
         <f>(C29+C30+C31)/300*100</f>
-        <v>99.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
@@ -860,9 +860,9 @@
       <c r="A36" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="2"/>
       <c r="C36" s="6">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -871,13 +871,13 @@
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="6">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C38">
         <f>(C34+C35+C36+C37)/400*100</f>
-        <v>60</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="21" x14ac:dyDescent="0.4">

--- a/Ressourcen/To-do Liste.xlsx
+++ b/Ressourcen/To-do Liste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\Ressourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D18C9-65E3-4250-ABE4-0B6C9DAA6E82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF0E12-ED39-440B-B760-D606380CF4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,16 +639,16 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="6">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="2"/>
       <c r="C9" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -657,7 +657,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="6">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -672,7 +672,7 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11)/900*100</f>
-        <v>82.111111111111114</v>
+        <v>92.222222222222229</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">

--- a/Ressourcen/To-do Liste.xlsx
+++ b/Ressourcen/To-do Liste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Desktop\Desktop\Wiss Sachen\3. Semester\Module 294\Aufgaben\8B-SideQuest\LB-Projekt-M294-295_Ethan-Shrestha\Ressourcen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CF0E12-ED39-440B-B760-D606380CF4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AAE53E-7E90-441C-9E83-B783CBF1FA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6264" yWindow="528" windowWidth="14928" windowHeight="11832" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Fertig</t>
   </si>
   <si>
-    <t>Angefangen</t>
-  </si>
-  <si>
     <t>Projektdokumentation</t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t>Datenbanksystem</t>
+  </si>
+  <si>
+    <t>Angefangen/Noch am Arbeit</t>
   </si>
 </sst>
 </file>
@@ -542,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +552,7 @@
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="6.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6"/>
       <c r="F1" t="s">
@@ -572,7 +572,7 @@
     </row>
     <row r="2" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="1" t="s">
@@ -581,7 +581,7 @@
     </row>
     <row r="3" spans="1:6" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="6">
@@ -589,12 +589,12 @@
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="6">
@@ -607,7 +607,7 @@
     </row>
     <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="6">
@@ -617,7 +617,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="6">
@@ -626,7 +626,7 @@
     </row>
     <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="6">
@@ -635,7 +635,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="6">
@@ -644,7 +644,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="6">
@@ -653,16 +653,16 @@
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" s="6">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="6">
@@ -672,18 +672,18 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="6">
         <f>(C3+C4+C5+C6+C7+C8+C9+C10+C11)/900*100</f>
-        <v>92.222222222222229</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="6">
@@ -692,7 +692,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="6">
@@ -701,7 +701,7 @@
     </row>
     <row r="16" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="6">
@@ -710,7 +710,7 @@
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="6">
@@ -729,13 +729,13 @@
     </row>
     <row r="20" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="6">
@@ -744,7 +744,7 @@
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="6">
@@ -753,7 +753,7 @@
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="6">
@@ -762,7 +762,7 @@
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="6">
@@ -771,7 +771,7 @@
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="6">
@@ -780,7 +780,7 @@
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="6">
@@ -795,13 +795,13 @@
     </row>
     <row r="28" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="6">
@@ -810,7 +810,7 @@
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="6">
@@ -819,7 +819,7 @@
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="6">
@@ -834,13 +834,13 @@
     </row>
     <row r="33" spans="1:3" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="6"/>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="6">
@@ -849,7 +849,7 @@
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="6">
@@ -858,7 +858,7 @@
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="6">
@@ -867,7 +867,7 @@
     </row>
     <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="6">
